--- a/output/fyrst_wealth.xlsx
+++ b/output/fyrst_wealth.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -41,15 +41,18 @@
     <t xml:space="preserve">education_years_husb_father</t>
   </si>
   <si>
-    <t xml:space="preserve">ownership_husb_fatherTRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secondhomeTRUE</t>
+    <t xml:space="preserve">ownership_husb_father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homevalue_other_logged</t>
   </si>
   <si>
     <t xml:space="preserve">N</t>
   </si>
   <si>
+    <t xml:space="preserve">R2</t>
+  </si>
+  <si>
     <t xml:space="preserve">AIC</t>
   </si>
   <si>
@@ -59,181 +62,259 @@
     <t xml:space="preserve">Pseudo R2</t>
   </si>
   <si>
-    <t xml:space="preserve">R2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> *** p &lt; 0.001;  ** p &lt; 0.01;  * p &lt; 0.05.</t>
   </si>
   <si>
     <t xml:space="preserve">Model 1</t>
   </si>
   <si>
-    <t xml:space="preserve">-5.27 *** (0.76)</t>
+    <t xml:space="preserve">0.78 *** (0.23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01 * (0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.11 * (0.05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02 * (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00 (0.05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08 (0.07)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11 *** (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01 (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08 ** (0.03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52 *** (0.34)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03 *** (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02 (0.07)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04 *** (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07 (0.07)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22 * (0.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20 *** (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00 (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09 * (0.04)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.71 *** (0.79)</t>
   </si>
   <si>
     <t xml:space="preserve">0.02 (0.01)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.36 ** (0.14)</t>
+    <t xml:space="preserve">-0.37 ** (0.14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10 *** (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21 (0.14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13 (0.20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28 *** (0.06)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02 (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22 * (0.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.57 * (0.73)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.61 *** (0.16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10 *** (0.03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.66 *** (0.18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.03 (0.25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05 (0.05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02 (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19 (0.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41 (0.43)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02 ** (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35 *** (0.08)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09 *** (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13 (0.08)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.08 (0.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13 *** (0.03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10 (0.05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.90 (0.82)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.01 (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.22 (0.16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.06 * (0.03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03 (0.16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22 (0.22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16 ** (0.05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03 (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.79 *** (0.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11 (0.71)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32 * (0.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16 (0.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.17 (0.18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21 *** (0.04)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21 ** (0.07)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.56 (0.43)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29 *** (0.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08 *** (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15 (0.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.07 (0.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17 *** (0.03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30 *** (0.05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.71 (0.37)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29 *** (0.07)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08 *** (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12 (0.07)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.10 (0.10)</t>
   </si>
   <si>
     <t xml:space="preserve">0.11 *** (0.02)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21 (0.14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13 (0.20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23 *** (0.05)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01 (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24 * (0.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.47 * (0.68)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.61 *** (0.16)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10 *** (0.03)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67 *** (0.18)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.04 (0.25)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04 (0.04)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02 (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09 (0.14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.71 (0.40)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02 ** (0.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34 *** (0.09)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09 *** (0.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13 (0.09)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.08 (0.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10 *** (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07 (0.08)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.64 (0.78)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.25 (0.15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.05 (0.03)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03 (0.15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21 (0.22)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13 ** (0.05)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03 (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91 *** (0.14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90 * (0.41)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02 * (0.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27 ** (0.09)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09 *** (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15 (0.09)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.07 (0.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13 *** (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30 *** (0.08)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59 (0.39)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32 *** (0.08)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10 *** (0.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15 (0.08)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.11 (0.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01 (0.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11 (0.08)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87 *** (0.07)</t>
+    <t xml:space="preserve">0.06 (0.05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27 *** (0.01)</t>
   </si>
 </sst>
 </file>
@@ -696,6 +777,9 @@
     <col min="5" max="5" width="10.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="10.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="10.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="10.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="NA" customHeight="1">
@@ -709,16 +793,25 @@
         <v>29</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" ht="NA" customHeight="1">
@@ -732,16 +825,25 @@
         <v>30</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" ht="NA" customHeight="1">
@@ -752,19 +854,28 @@
         <v>19</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>40</v>
+        <v>69</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -775,19 +886,28 @@
         <v>20</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
@@ -798,19 +918,28 @@
         <v>21</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
@@ -821,19 +950,28 @@
         <v>22</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" ht="NA" customHeight="1">
@@ -844,19 +982,28 @@
         <v>23</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" ht="NA" customHeight="1">
@@ -867,19 +1014,28 @@
         <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>74</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" ht="NA" customHeight="1">
@@ -890,19 +1046,28 @@
         <v>25</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="NA" customHeight="1">
@@ -913,19 +1078,28 @@
         <v>26</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" ht="NA" customHeight="1">
@@ -948,7 +1122,16 @@
         <v>27</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>73</v>
+        <v>27</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="12" ht="NA" customHeight="1">
@@ -962,15 +1145,24 @@
         <v>1255</v>
       </c>
       <c r="D12" s="9" t="n">
-        <v>942</v>
+        <v>1255</v>
       </c>
       <c r="E12" s="9" t="n">
-        <v>942</v>
+        <v>1255</v>
       </c>
       <c r="F12" s="9" t="n">
         <v>942</v>
       </c>
       <c r="G12" s="9" t="n">
+        <v>942</v>
+      </c>
+      <c r="H12" s="9" t="n">
+        <v>533</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <v>942</v>
+      </c>
+      <c r="J12" s="9" t="n">
         <v>942</v>
       </c>
     </row>
@@ -979,22 +1171,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="n">
-        <v>1642.12</v>
+        <v>0.08</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>1340.73</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>2945.58</v>
-      </c>
-      <c r="E13" s="7" t="n">
-        <v>1253.34</v>
+        <v>0.12</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>2994.7</v>
-      </c>
-      <c r="G13" s="7" t="n">
-        <v>2869.39</v>
+        <v>0.16</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J13" s="7" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="14" ht="NA" customHeight="1">
@@ -1002,22 +1203,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="n">
-        <v>1688.33</v>
+        <v>2731.55</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>1386.94</v>
+        <v>3703.95</v>
       </c>
       <c r="D14" s="7" t="n">
-        <v>2994.06</v>
+        <v>1635.94</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>1296.97</v>
+        <v>1337.48</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>3043.18</v>
+        <v>2938.06</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>2922.72</v>
+        <v>1235.46</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <v>1790.2</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <v>2971.24</v>
+      </c>
+      <c r="J14" s="7" t="n">
+        <v>2651.27</v>
       </c>
     </row>
     <row r="15" ht="NA" customHeight="1">
@@ -1025,22 +1235,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.1</v>
+        <v>2782.9</v>
       </c>
       <c r="C15" s="7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>28</v>
+        <v>3755.3</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>1682.15</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>1383.69</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>2986.54</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>1279.09</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <v>1832.98</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>3019.72</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <v>2704.6</v>
       </c>
     </row>
     <row r="16" ht="NA" customHeight="1">
@@ -1054,16 +1273,25 @@
         <v>28</v>
       </c>
       <c r="D16" s="10" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E16" s="10" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="10" t="n">
-        <v>0.17</v>
-      </c>
       <c r="G16" s="10" t="n">
-        <v>0.28</v>
+        <v>0.11</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="NA" customHeight="1">
@@ -1088,10 +1316,19 @@
       <c r="G17" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="H17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/output/fyrst_wealth.xlsx
+++ b/output/fyrst_wealth.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">ownership_husb_father</t>
   </si>
   <si>
-    <t xml:space="preserve">homevalue_other_logged</t>
+    <t xml:space="preserve">secondhomeTRUE</t>
   </si>
   <si>
     <t xml:space="preserve">N</t>
@@ -293,28 +293,25 @@
     <t xml:space="preserve">Model 9</t>
   </si>
   <si>
-    <t xml:space="preserve">0.71 (0.37)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29 *** (0.07)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08 *** (0.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12 (0.07)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.10 (0.10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11 *** (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06 (0.05)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27 *** (0.01)</t>
+    <t xml:space="preserve">0.30 (0.41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33 *** (0.08)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09 *** (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14 (0.08)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.11 (0.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14 *** (0.03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83 *** (0.07)</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1096,7 @@
         <v>91</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" ht="NA" customHeight="1">
@@ -1131,7 +1128,7 @@
         <v>27</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" ht="NA" customHeight="1">
@@ -1195,7 +1192,7 @@
         <v>0.19</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>0.43</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="14" ht="NA" customHeight="1">
@@ -1227,7 +1224,7 @@
         <v>2971.24</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>2651.27</v>
+        <v>2856.72</v>
       </c>
     </row>
     <row r="15" ht="NA" customHeight="1">
@@ -1259,7 +1256,7 @@
         <v>3019.72</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>2704.6</v>
+        <v>2910.05</v>
       </c>
     </row>
     <row r="16" ht="NA" customHeight="1">
